--- a/cmip6/models/giss-e2-1-ma-g/cmip6_nasa-giss_giss-e2-1-ma-g_toplevel.xlsx
+++ b/cmip6/models/giss-e2-1-ma-g/cmip6_nasa-giss_giss-e2-1-ma-g_toplevel.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
-    <sheet name="1. Key Properties" sheetId="2" r:id="rId2"/>
-    <sheet name="2. Radiative Forcings" sheetId="3" r:id="rId3"/>
+    <sheet name="1. Parties &amp; Citations" sheetId="2" r:id="rId2"/>
+    <sheet name="2. Key Properties" sheetId="3" r:id="rId3"/>
+    <sheet name="3. Radiative Forcings" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="444">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -48,10 +49,19 @@
     <t>Sub-Topics</t>
   </si>
   <si>
-    <t>1. Key Properties</t>
-  </si>
-  <si>
-    <t>2. Radiative Forcings</t>
+    <t>1. Parties &amp; Citations</t>
+  </si>
+  <si>
+    <t>2. Key Properties</t>
+  </si>
+  <si>
+    <t>3. Radiative Forcings</t>
+  </si>
+  <si>
+    <t>How To Use</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-document-spreadsheets</t>
   </si>
   <si>
     <t>Further Info</t>
@@ -63,34 +73,61 @@
     <t>Specialization Version</t>
   </si>
   <si>
-    <t>1.0.2</t>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>Parties &amp; Citations</t>
   </si>
   <si>
     <t>1.1</t>
   </si>
   <si>
+    <t>Parties</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>Mnemonic references to responsible parties</t>
+  </si>
+  <si>
+    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Citations</t>
+  </si>
+  <si>
+    <t>Mnemonic references to citations</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
     <t>Key Properties</t>
   </si>
   <si>
     <t>Key properties of the model</t>
   </si>
   <si>
-    <t>1.1.1 *</t>
+    <t>2.1.1 *</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>STRING</t>
-  </si>
-  <si>
     <t>Name of coupled model</t>
   </si>
   <si>
     <t>cmip6.toplevel.key_properties.name</t>
   </si>
   <si>
-    <t>1.1.2 *</t>
+    <t>2.1.2 *</t>
   </si>
   <si>
     <t>Keywords</t>
@@ -105,7 +142,7 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
-    <t>1.1.3 *</t>
+    <t>2.1.3 *</t>
   </si>
   <si>
     <t>Overview</t>
@@ -120,7 +157,7 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t>1.2</t>
+    <t>2.2</t>
   </si>
   <si>
     <t>Key Properties --&gt; Flux Correction</t>
@@ -129,7 +166,7 @@
     <t>Flux correction properties of the model</t>
   </si>
   <si>
-    <t>1.2.1 *</t>
+    <t>2.2.1 *</t>
   </si>
   <si>
     <t>Details</t>
@@ -141,7 +178,7 @@
     <t>cmip6.toplevel.key_properties.flux_correction.details</t>
   </si>
   <si>
-    <t>1.3</t>
+    <t>2.3</t>
   </si>
   <si>
     <t>Key Properties --&gt; Genealogy</t>
@@ -150,7 +187,7 @@
     <t>Genealogy and history of the model</t>
   </si>
   <si>
-    <t>1.3.1 *</t>
+    <t>2.3.1 *</t>
   </si>
   <si>
     <t>Year Released</t>
@@ -162,7 +199,7 @@
     <t>cmip6.toplevel.key_properties.genealogy.year_released</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.2 </t>
+    <t xml:space="preserve">2.3.2 </t>
   </si>
   <si>
     <t>CMIP3 Parent</t>
@@ -174,7 +211,7 @@
     <t>cmip6.toplevel.key_properties.genealogy.CMIP3_parent</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.3 </t>
+    <t xml:space="preserve">2.3.3 </t>
   </si>
   <si>
     <t>CMIP5 Parent</t>
@@ -186,7 +223,19 @@
     <t>cmip6.toplevel.key_properties.genealogy.CMIP5_parent</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.4 </t>
+    <t xml:space="preserve">2.3.4 </t>
+  </si>
+  <si>
+    <t>CMIP5 Differences</t>
+  </si>
+  <si>
+    <t>Briefly summarize the differences between this model and its CMIP5 parent, if applicable</t>
+  </si>
+  <si>
+    <t>cmip6.toplevel.key_properties.genealogy.CMIP5_differences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.5 </t>
   </si>
   <si>
     <t>Previous Name</t>
@@ -198,7 +247,7 @@
     <t>cmip6.toplevel.key_properties.genealogy.previous_name</t>
   </si>
   <si>
-    <t>1.4</t>
+    <t>2.4</t>
   </si>
   <si>
     <t>Key Properties --&gt; Software Properties</t>
@@ -207,7 +256,7 @@
     <t>Software properties of model</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.1 </t>
+    <t xml:space="preserve">2.4.1 </t>
   </si>
   <si>
     <t>Repository</t>
@@ -219,7 +268,7 @@
     <t>cmip6.toplevel.key_properties.software_properties.repository</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.2 </t>
+    <t xml:space="preserve">2.4.2 </t>
   </si>
   <si>
     <t>Code Version</t>
@@ -231,7 +280,7 @@
     <t>cmip6.toplevel.key_properties.software_properties.code_version</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.3 </t>
+    <t xml:space="preserve">2.4.3 </t>
   </si>
   <si>
     <t>Code Languages</t>
@@ -243,7 +292,7 @@
     <t>cmip6.toplevel.key_properties.software_properties.code_languages</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.4 </t>
+    <t xml:space="preserve">2.4.4 </t>
   </si>
   <si>
     <t>Components Structure</t>
@@ -255,7 +304,7 @@
     <t>cmip6.toplevel.key_properties.software_properties.components_structure</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.5 </t>
+    <t xml:space="preserve">2.4.5 </t>
   </si>
   <si>
     <t>Coupler</t>
@@ -294,13 +343,13 @@
     <t>Other: document to the right</t>
   </si>
   <si>
-    <t>1.5</t>
+    <t>2.5</t>
   </si>
   <si>
     <t>Key Properties --&gt; Coupling</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.1 </t>
+    <t xml:space="preserve">2.5.1 </t>
   </si>
   <si>
     <t>Overview of  in toplevel model.</t>
@@ -309,13 +358,7 @@
     <t>cmip6.toplevel.key_properties.coupling.overview</t>
   </si>
   <si>
-    <t>1.5.2 *</t>
-  </si>
-  <si>
-    <t>Overview of coupling in the model</t>
-  </si>
-  <si>
-    <t>1.5.3 *</t>
+    <t>2.5.2 *</t>
   </si>
   <si>
     <t>Atmosphere Double Flux</t>
@@ -330,7 +373,7 @@
     <t>cmip6.toplevel.key_properties.coupling.atmosphere_double_flux</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.4 </t>
+    <t xml:space="preserve">2.5.3 </t>
   </si>
   <si>
     <t>Atmosphere Fluxes Calculation Grid</t>
@@ -351,7 +394,7 @@
     <t>Specific coupler grid</t>
   </si>
   <si>
-    <t>1.5.5 *</t>
+    <t>2.5.4 *</t>
   </si>
   <si>
     <t>Atmosphere Relative Winds</t>
@@ -363,7 +406,7 @@
     <t>cmip6.toplevel.key_properties.coupling.atmosphere_relative_winds</t>
   </si>
   <si>
-    <t>1.6</t>
+    <t>2.6</t>
   </si>
   <si>
     <t>Key Properties --&gt; Tuning Applied</t>
@@ -372,7 +415,7 @@
     <t>Tuning methodology for model</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.1 </t>
+    <t xml:space="preserve">2.6.1 </t>
   </si>
   <si>
     <t>Overview of tuning methodology for model in toplevel model.</t>
@@ -381,7 +424,7 @@
     <t>cmip6.toplevel.key_properties.tuning_applied.overview</t>
   </si>
   <si>
-    <t>1.6.2 *</t>
+    <t>2.6.2 *</t>
   </si>
   <si>
     <t>Description</t>
@@ -393,7 +436,7 @@
     <t>cmip6.toplevel.key_properties.tuning_applied.description</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.3 </t>
+    <t xml:space="preserve">2.6.3 </t>
   </si>
   <si>
     <t>Global Mean Metrics Used</t>
@@ -405,7 +448,7 @@
     <t>cmip6.toplevel.key_properties.tuning_applied.global_mean_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.4 </t>
+    <t xml:space="preserve">2.6.4 </t>
   </si>
   <si>
     <t>Regional Metrics Used</t>
@@ -417,7 +460,7 @@
     <t>cmip6.toplevel.key_properties.tuning_applied.regional_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.5 </t>
+    <t xml:space="preserve">2.6.5 </t>
   </si>
   <si>
     <t>Trend Metrics Used</t>
@@ -429,7 +472,7 @@
     <t>cmip6.toplevel.key_properties.tuning_applied.trend_metrics_used</t>
   </si>
   <si>
-    <t>1.6.6 *</t>
+    <t>2.6.6 *</t>
   </si>
   <si>
     <t>Energy Balance</t>
@@ -441,7 +484,7 @@
     <t>cmip6.toplevel.key_properties.tuning_applied.energy_balance</t>
   </si>
   <si>
-    <t>1.6.7 *</t>
+    <t>2.6.7 *</t>
   </si>
   <si>
     <t>Fresh Water Balance</t>
@@ -453,7 +496,7 @@
     <t>cmip6.toplevel.key_properties.tuning_applied.fresh_water_balance</t>
   </si>
   <si>
-    <t>1.7</t>
+    <t>2.7</t>
   </si>
   <si>
     <t>Key Properties --&gt; Conservation</t>
@@ -462,7 +505,7 @@
     <t>Global convervation properties of the model</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7.1 </t>
+    <t xml:space="preserve">2.7.1 </t>
   </si>
   <si>
     <t>Overview of global convervation properties of the model in toplevel model.</t>
@@ -471,7 +514,7 @@
     <t>cmip6.toplevel.key_properties.conservation.overview</t>
   </si>
   <si>
-    <t>1.8</t>
+    <t>2.8</t>
   </si>
   <si>
     <t>Key Properties --&gt; Conservation --&gt; Heat</t>
@@ -480,7 +523,7 @@
     <t>Global heat convervation properties of the model</t>
   </si>
   <si>
-    <t>1.8.1 *</t>
+    <t>2.8.1 *</t>
   </si>
   <si>
     <t>Global</t>
@@ -492,7 +535,7 @@
     <t>cmip6.toplevel.key_properties.conservation.heat.global</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8.2 </t>
+    <t xml:space="preserve">2.8.2 </t>
   </si>
   <si>
     <t>Atmos Ocean Interface</t>
@@ -504,7 +547,7 @@
     <t>cmip6.toplevel.key_properties.conservation.heat.atmos_ocean_interface</t>
   </si>
   <si>
-    <t>1.8.3 *</t>
+    <t>2.8.3 *</t>
   </si>
   <si>
     <t>Atmos Land Interface</t>
@@ -516,7 +559,7 @@
     <t>cmip6.toplevel.key_properties.conservation.heat.atmos_land_interface</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8.4 </t>
+    <t xml:space="preserve">2.8.4 </t>
   </si>
   <si>
     <t>Atmos Sea-ice Interface</t>
@@ -528,7 +571,7 @@
     <t>cmip6.toplevel.key_properties.conservation.heat.atmos_sea-ice_interface</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8.5 </t>
+    <t xml:space="preserve">2.8.5 </t>
   </si>
   <si>
     <t>Ocean Seaice Interface</t>
@@ -540,7 +583,7 @@
     <t>cmip6.toplevel.key_properties.conservation.heat.ocean_seaice_interface</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8.6 </t>
+    <t xml:space="preserve">2.8.6 </t>
   </si>
   <si>
     <t>Land Ocean Interface</t>
@@ -552,7 +595,7 @@
     <t>cmip6.toplevel.key_properties.conservation.heat.land_ocean_interface</t>
   </si>
   <si>
-    <t>1.9</t>
+    <t>2.9</t>
   </si>
   <si>
     <t>Key Properties --&gt; Conservation --&gt; Fresh Water</t>
@@ -561,7 +604,7 @@
     <t>Global fresh water convervation properties of the model</t>
   </si>
   <si>
-    <t>1.9.1 *</t>
+    <t>2.9.1 *</t>
   </si>
   <si>
     <t>Describe if/how fresh_water is conserved globally</t>
@@ -570,7 +613,7 @@
     <t>cmip6.toplevel.key_properties.conservation.fresh_water.global</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9.2 </t>
+    <t xml:space="preserve">2.9.2 </t>
   </si>
   <si>
     <t>Describe if/how fresh_water is conserved at the atmosphere/ocean coupling interface</t>
@@ -579,7 +622,7 @@
     <t>cmip6.toplevel.key_properties.conservation.fresh_water.atmos_ocean_interface</t>
   </si>
   <si>
-    <t>1.9.3 *</t>
+    <t>2.9.3 *</t>
   </si>
   <si>
     <t>Describe if/how fresh water is conserved at the atmosphere/land coupling interface</t>
@@ -588,7 +631,7 @@
     <t>cmip6.toplevel.key_properties.conservation.fresh_water.atmos_land_interface</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9.4 </t>
+    <t xml:space="preserve">2.9.4 </t>
   </si>
   <si>
     <t>Describe if/how fresh water is conserved at the atmosphere/sea-ice coupling interface</t>
@@ -597,7 +640,7 @@
     <t>cmip6.toplevel.key_properties.conservation.fresh_water.atmos_sea-ice_interface</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9.5 </t>
+    <t xml:space="preserve">2.9.5 </t>
   </si>
   <si>
     <t>Describe if/how fresh water is conserved at the ocean/sea-ice coupling interface</t>
@@ -606,7 +649,7 @@
     <t>cmip6.toplevel.key_properties.conservation.fresh_water.ocean_seaice_interface</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9.6 </t>
+    <t xml:space="preserve">2.9.6 </t>
   </si>
   <si>
     <t>Runoff</t>
@@ -618,7 +661,7 @@
     <t>cmip6.toplevel.key_properties.conservation.fresh_water.runoff</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9.7 </t>
+    <t xml:space="preserve">2.9.7 </t>
   </si>
   <si>
     <t>Iceberg Calving</t>
@@ -630,7 +673,7 @@
     <t>cmip6.toplevel.key_properties.conservation.fresh_water.iceberg_calving</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9.8 </t>
+    <t xml:space="preserve">2.9.8 </t>
   </si>
   <si>
     <t>Endoreic Basins</t>
@@ -642,7 +685,7 @@
     <t>cmip6.toplevel.key_properties.conservation.fresh_water.endoreic_basins</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9.9 </t>
+    <t xml:space="preserve">2.9.9 </t>
   </si>
   <si>
     <t>Snow Accumulation</t>
@@ -654,7 +697,7 @@
     <t>cmip6.toplevel.key_properties.conservation.fresh_water.snow_accumulation</t>
   </si>
   <si>
-    <t>1.10</t>
+    <t>2.10</t>
   </si>
   <si>
     <t>Key Properties --&gt; Conservation --&gt; Salt</t>
@@ -663,7 +706,7 @@
     <t>Global salt convervation properties of the model</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10.1 </t>
+    <t xml:space="preserve">2.10.1 </t>
   </si>
   <si>
     <t>Describe if/how salt is conserved at the ocean/sea-ice coupling interface</t>
@@ -672,7 +715,7 @@
     <t>cmip6.toplevel.key_properties.conservation.salt.ocean_seaice_interface</t>
   </si>
   <si>
-    <t>1.11</t>
+    <t>2.11</t>
   </si>
   <si>
     <t>Key Properties --&gt; Conservation --&gt; Momentum</t>
@@ -681,7 +724,7 @@
     <t>Global momentum convervation properties of the model</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11.1 </t>
+    <t xml:space="preserve">2.11.1 </t>
   </si>
   <si>
     <t>Describe if/how momentum is conserved in the model</t>
@@ -690,7 +733,7 @@
     <t>cmip6.toplevel.key_properties.conservation.momentum.details</t>
   </si>
   <si>
-    <t>2.1</t>
+    <t>3.1</t>
   </si>
   <si>
     <t>Radiative Forcings</t>
@@ -699,7 +742,7 @@
     <t>Radiative forcings of the model for historical and scenario (aka Table 12.1 IPCC AR5)</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.1 </t>
+    <t xml:space="preserve">3.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the radiative forcings in toplevel model.</t>
@@ -708,7 +751,7 @@
     <t>cmip6.toplevel.radiative_forcings.name</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.2 </t>
+    <t xml:space="preserve">3.1.2 </t>
   </si>
   <si>
     <t>Overview of radiative forcings of the model for historical and scenario (aka table 12.1 ipcc ar5) in toplevel model.</t>
@@ -717,7 +760,7 @@
     <t>cmip6.toplevel.radiative_forcings.overview</t>
   </si>
   <si>
-    <t>2.2</t>
+    <t>3.2</t>
   </si>
   <si>
     <t>Radiative Forcings --&gt; Greenhouse Gases</t>
@@ -726,7 +769,7 @@
     <t>Greenhouse gas forcing agents</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.1 </t>
+    <t xml:space="preserve">3.2.1 </t>
   </si>
   <si>
     <t>Overview of greenhouse gas forcing agents in toplevel model.</t>
@@ -735,7 +778,7 @@
     <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.overview</t>
   </si>
   <si>
-    <t>2.3</t>
+    <t>3.3</t>
   </si>
   <si>
     <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; CO2</t>
@@ -744,7 +787,7 @@
     <t>Carbon dioxide forcing</t>
   </si>
   <si>
-    <t>2.3.1 *</t>
+    <t>3.3.1 *</t>
   </si>
   <si>
     <t>Provision</t>
@@ -756,9 +799,6 @@
     <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CO2.provision</t>
   </si>
   <si>
-    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -777,7 +817,7 @@
     <t>C</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.2 </t>
+    <t xml:space="preserve">3.3.2 </t>
   </si>
   <si>
     <t>Additional Information</t>
@@ -789,7 +829,7 @@
     <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CO2.additional_information</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>3.4</t>
   </si>
   <si>
     <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; CH4</t>
@@ -798,19 +838,19 @@
     <t>Methane forcing</t>
   </si>
   <si>
-    <t>2.4.1 *</t>
+    <t>3.4.1 *</t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CH4.provision</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.2 </t>
+    <t xml:space="preserve">3.4.2 </t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CH4.additional_information</t>
   </si>
   <si>
-    <t>2.5</t>
+    <t>3.5</t>
   </si>
   <si>
     <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; N2O</t>
@@ -819,19 +859,19 @@
     <t>Nitrous oxide forcing</t>
   </si>
   <si>
-    <t>2.5.1 *</t>
+    <t>3.5.1 *</t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.N2O.provision</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.2 </t>
+    <t xml:space="preserve">3.5.2 </t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.N2O.additional_information</t>
   </si>
   <si>
-    <t>2.6</t>
+    <t>3.6</t>
   </si>
   <si>
     <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; Tropospheric O3</t>
@@ -840,19 +880,19 @@
     <t>Troposheric ozone forcing</t>
   </si>
   <si>
-    <t>2.6.1 *</t>
+    <t>3.6.1 *</t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.tropospheric_O3.provision</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6.2 </t>
+    <t xml:space="preserve">3.6.2 </t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.tropospheric_O3.additional_information</t>
   </si>
   <si>
-    <t>2.7</t>
+    <t>3.7</t>
   </si>
   <si>
     <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; Stratospheric O3</t>
@@ -861,19 +901,19 @@
     <t>Stratospheric ozone forcing</t>
   </si>
   <si>
-    <t>2.7.1 *</t>
+    <t>3.7.1 *</t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.stratospheric_O3.provision</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7.2 </t>
+    <t xml:space="preserve">3.7.2 </t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.stratospheric_O3.additional_information</t>
   </si>
   <si>
-    <t>2.8</t>
+    <t>3.8</t>
   </si>
   <si>
     <t>Radiative Forcings --&gt; Greenhouse Gases --&gt; CFC</t>
@@ -882,13 +922,13 @@
     <t>Ozone-depleting and non-ozone-depleting fluorinated gases forcing</t>
   </si>
   <si>
-    <t>2.8.1 *</t>
+    <t>3.8.1 *</t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CFC.provision</t>
   </si>
   <si>
-    <t>2.8.2 *</t>
+    <t>3.8.2 *</t>
   </si>
   <si>
     <t>Equivalence Concentration</t>
@@ -909,13 +949,13 @@
     <t>Option 3</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8.3 </t>
+    <t xml:space="preserve">3.8.3 </t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CFC.additional_information</t>
   </si>
   <si>
-    <t>2.9</t>
+    <t>3.9</t>
   </si>
   <si>
     <t>Radiative Forcings --&gt; Aerosols</t>
@@ -924,7 +964,7 @@
     <t>Aerosol forcing agents</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9.1 </t>
+    <t xml:space="preserve">3.9.1 </t>
   </si>
   <si>
     <t>Overview of aerosol forcing agents in toplevel model.</t>
@@ -933,7 +973,7 @@
     <t>cmip6.toplevel.radiative_forcings.aerosols.overview</t>
   </si>
   <si>
-    <t>2.10</t>
+    <t>3.10</t>
   </si>
   <si>
     <t>Radiative Forcings --&gt; Aerosols --&gt; SO4</t>
@@ -942,19 +982,19 @@
     <t>SO4 aerosol forcing</t>
   </si>
   <si>
-    <t>2.10.1 *</t>
+    <t>3.10.1 *</t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.aerosols.SO4.provision</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10.2 </t>
+    <t xml:space="preserve">3.10.2 </t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.aerosols.SO4.additional_information</t>
   </si>
   <si>
-    <t>2.11</t>
+    <t>3.11</t>
   </si>
   <si>
     <t>Radiative Forcings --&gt; Aerosols --&gt; Black Carbon</t>
@@ -963,19 +1003,19 @@
     <t>Black carbon aerosol forcing</t>
   </si>
   <si>
-    <t>2.11.1 *</t>
+    <t>3.11.1 *</t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.aerosols.black_carbon.provision</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11.2 </t>
+    <t xml:space="preserve">3.11.2 </t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.aerosols.black_carbon.additional_information</t>
   </si>
   <si>
-    <t>2.12</t>
+    <t>3.12</t>
   </si>
   <si>
     <t>Radiative Forcings --&gt; Aerosols --&gt; Organic Carbon</t>
@@ -984,19 +1024,19 @@
     <t>Organic carbon aerosol forcing</t>
   </si>
   <si>
-    <t>2.12.1 *</t>
+    <t>3.12.1 *</t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.aerosols.organic_carbon.provision</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12.2 </t>
+    <t xml:space="preserve">3.12.2 </t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.aerosols.organic_carbon.additional_information</t>
   </si>
   <si>
-    <t>2.13</t>
+    <t>3.13</t>
   </si>
   <si>
     <t>Radiative Forcings --&gt; Aerosols --&gt; Nitrate</t>
@@ -1005,19 +1045,19 @@
     <t>Nitrate forcing</t>
   </si>
   <si>
-    <t>2.13.1 *</t>
+    <t>3.13.1 *</t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.aerosols.nitrate.provision</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13.2 </t>
+    <t xml:space="preserve">3.13.2 </t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.aerosols.nitrate.additional_information</t>
   </si>
   <si>
-    <t>2.14</t>
+    <t>3.14</t>
   </si>
   <si>
     <t>Radiative Forcings --&gt; Aerosols --&gt; Cloud Albedo Effect</t>
@@ -1026,13 +1066,13 @@
     <t>Cloud albedo effect forcing (RFaci)</t>
   </si>
   <si>
-    <t>2.14.1 *</t>
+    <t>3.14.1 *</t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_albedo_effect.provision</t>
   </si>
   <si>
-    <t>2.14.2 *</t>
+    <t>3.14.2 *</t>
   </si>
   <si>
     <t>Aerosol Effect On Ice Clouds</t>
@@ -1044,13 +1084,13 @@
     <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_albedo_effect.aerosol_effect_on_ice_clouds</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14.3 </t>
+    <t xml:space="preserve">3.14.3 </t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_albedo_effect.additional_information</t>
   </si>
   <si>
-    <t>2.15</t>
+    <t>3.15</t>
   </si>
   <si>
     <t>Radiative Forcings --&gt; Aerosols --&gt; Cloud Lifetime Effect</t>
@@ -1059,19 +1099,19 @@
     <t>Cloud lifetime effect forcing (ERFaci)</t>
   </si>
   <si>
-    <t>2.15.1 *</t>
+    <t>3.15.1 *</t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.provision</t>
   </si>
   <si>
-    <t>2.15.2 *</t>
+    <t>3.15.2 *</t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.aerosol_effect_on_ice_clouds</t>
   </si>
   <si>
-    <t>2.15.3 *</t>
+    <t>3.15.3 *</t>
   </si>
   <si>
     <t>RFaci From Sulfate Only</t>
@@ -1083,13 +1123,13 @@
     <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.RFaci_from_sulfate_only</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15.4 </t>
+    <t xml:space="preserve">3.15.4 </t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.aerosols.cloud_lifetime_effect.additional_information</t>
   </si>
   <si>
-    <t>2.16</t>
+    <t>3.16</t>
   </si>
   <si>
     <t>Radiative Forcings --&gt; Aerosols --&gt; Dust</t>
@@ -1098,19 +1138,19 @@
     <t>Dust forcing</t>
   </si>
   <si>
-    <t>2.16.1 *</t>
+    <t>3.16.1 *</t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.aerosols.dust.provision</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16.2 </t>
+    <t xml:space="preserve">3.16.2 </t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.aerosols.dust.additional_information</t>
   </si>
   <si>
-    <t>2.17</t>
+    <t>3.17</t>
   </si>
   <si>
     <t>Radiative Forcings --&gt; Aerosols --&gt; Tropospheric Volcanic</t>
@@ -1119,13 +1159,13 @@
     <t>Tropospheric volcanic forcing</t>
   </si>
   <si>
-    <t>2.17.1 *</t>
+    <t>3.17.1 *</t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.provision</t>
   </si>
   <si>
-    <t>2.17.2 *</t>
+    <t>3.17.2 *</t>
   </si>
   <si>
     <t>Historical Explosive Volcanic Aerosol Implementation</t>
@@ -1152,7 +1192,7 @@
     <t>Type E</t>
   </si>
   <si>
-    <t>2.17.3 *</t>
+    <t>3.17.3 *</t>
   </si>
   <si>
     <t>Future Explosive Volcanic Aerosol Implementation</t>
@@ -1164,13 +1204,13 @@
     <t>cmip6.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.future_explosive_volcanic_aerosol_implementation</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17.4 </t>
+    <t xml:space="preserve">3.17.4 </t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.additional_information</t>
   </si>
   <si>
-    <t>2.18</t>
+    <t>3.18</t>
   </si>
   <si>
     <t>Radiative Forcings --&gt; Aerosols --&gt; Stratospheric Volcanic</t>
@@ -1179,31 +1219,31 @@
     <t>Stratospheric volcanic forcing</t>
   </si>
   <si>
-    <t>2.18.1 *</t>
+    <t>3.18.1 *</t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.provision</t>
   </si>
   <si>
-    <t>2.18.2 *</t>
+    <t>3.18.2 *</t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.historical_explosive_volcanic_aerosol_implementation</t>
   </si>
   <si>
-    <t>2.18.3 *</t>
+    <t>3.18.3 *</t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.future_explosive_volcanic_aerosol_implementation</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18.4 </t>
+    <t xml:space="preserve">3.18.4 </t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.aerosols.stratospheric_volcanic.additional_information</t>
   </si>
   <si>
-    <t>2.19</t>
+    <t>3.19</t>
   </si>
   <si>
     <t>Radiative Forcings --&gt; Aerosols --&gt; Sea Salt</t>
@@ -1212,19 +1252,19 @@
     <t>Sea salt forcing</t>
   </si>
   <si>
-    <t>2.19.1 *</t>
+    <t>3.19.1 *</t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.aerosols.sea_salt.provision</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19.2 </t>
+    <t xml:space="preserve">3.19.2 </t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.aerosols.sea_salt.additional_information</t>
   </si>
   <si>
-    <t>2.20</t>
+    <t>3.20</t>
   </si>
   <si>
     <t>Radiative Forcings --&gt; Other</t>
@@ -1233,7 +1273,7 @@
     <t>Miscellaneous forcing agents</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20.1 </t>
+    <t xml:space="preserve">3.20.1 </t>
   </si>
   <si>
     <t>Overview of miscellaneous forcing agents in toplevel model.</t>
@@ -1242,7 +1282,7 @@
     <t>cmip6.toplevel.radiative_forcings.other.overview</t>
   </si>
   <si>
-    <t>2.21</t>
+    <t>3.21</t>
   </si>
   <si>
     <t>Radiative Forcings --&gt; Other --&gt; Land Use</t>
@@ -1251,13 +1291,13 @@
     <t>Land use forcing</t>
   </si>
   <si>
-    <t>2.21.1 *</t>
+    <t>3.21.1 *</t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.other.land_use.provision</t>
   </si>
   <si>
-    <t>2.21.2 *</t>
+    <t>3.21.2 *</t>
   </si>
   <si>
     <t>Crop Change Only</t>
@@ -1269,13 +1309,13 @@
     <t>cmip6.toplevel.radiative_forcings.other.land_use.crop_change_only</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21.3 </t>
+    <t xml:space="preserve">3.21.3 </t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.other.land_use.additional_information</t>
   </si>
   <si>
-    <t>2.22</t>
+    <t>3.22</t>
   </si>
   <si>
     <t>Radiative Forcings --&gt; Other --&gt; Solar</t>
@@ -1284,7 +1324,7 @@
     <t>Solar forcing</t>
   </si>
   <si>
-    <t>2.22.1 *</t>
+    <t>3.22.1 *</t>
   </si>
   <si>
     <t>How solar forcing is provided</t>
@@ -1305,7 +1345,7 @@
     <t>Cosmic ray</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22.2 </t>
+    <t xml:space="preserve">3.22.2 </t>
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.other.solar.additional_information</t>
@@ -1315,7 +1355,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1357,9 +1397,8 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="24"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -1384,14 +1423,22 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <i/>
-      <sz val="10"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1441,7 +1488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1458,10 +1505,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1473,11 +1517,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1773,7 +1823,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD13"/>
+  <dimension ref="A1:XFD15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1834,31 +1884,119 @@
         <v>11</v>
       </c>
     </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD240"/>
   <sheetViews>
@@ -1873,1253 +2011,1253 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>17</v>
+      <c r="A1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>18</v>
+      <c r="B2" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>20</v>
+      <c r="A4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>23</v>
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>25</v>
+      <c r="A8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>27</v>
+      <c r="A9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>28</v>
+      <c r="B10" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>30</v>
+      <c r="A13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>32</v>
+      <c r="A14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>33</v>
+      <c r="B15" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>35</v>
+      <c r="A19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
-      <c r="B20" s="7" t="s">
-        <v>36</v>
+      <c r="B20" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>38</v>
+      <c r="A22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>40</v>
+      <c r="A23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
-      <c r="B24" s="12" t="s">
-        <v>33</v>
+      <c r="B24" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="178" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
-      <c r="A28" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>42</v>
+      <c r="A28" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="B29" s="7" t="s">
-        <v>43</v>
+      <c r="B29" s="13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>45</v>
+      <c r="A31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>47</v>
+      <c r="A32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="B33" s="11"/>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="A35" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>49</v>
+      <c r="A35" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>51</v>
+      <c r="A36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="B37" s="11"/>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="A39" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>53</v>
+      <c r="A39" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>55</v>
+      <c r="A40" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="B41" s="11"/>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="A43" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>57</v>
+      <c r="A43" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>59</v>
+      <c r="A44" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="B45" s="11"/>
+      <c r="B45" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="178" customHeight="1">
+      <c r="B46" s="11"/>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>61</v>
+      <c r="A48" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="B49" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>66</v>
-      </c>
+      <c r="A49" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="24" customHeight="1">
+      <c r="B50" s="11"/>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="B53" s="11"/>
-    </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="A55" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>68</v>
+      <c r="A53" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="24" customHeight="1">
+      <c r="B54" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>70</v>
+      <c r="A56" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="B57" s="11"/>
-    </row>
-    <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="A59" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="A57" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="24" customHeight="1">
+      <c r="B58" s="11"/>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
-      <c r="A60" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>74</v>
+      <c r="A60" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="B61" s="12" t="s">
-        <v>28</v>
+      <c r="A61" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="B62" s="11"/>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
-      <c r="A64" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>76</v>
+      <c r="A64" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:34" ht="24" customHeight="1">
-      <c r="A65" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>78</v>
+      <c r="A65" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:34" ht="24" customHeight="1">
-      <c r="B66" s="11"/>
-    </row>
-    <row r="68" spans="1:34" ht="24" customHeight="1">
-      <c r="A68" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="B66" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" ht="24" customHeight="1">
+      <c r="B67" s="11"/>
     </row>
     <row r="69" spans="1:34" ht="24" customHeight="1">
-      <c r="A69" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>83</v>
+      <c r="A69" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:34" ht="24" customHeight="1">
-      <c r="B70" s="11"/>
-      <c r="AA70" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB70" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC70" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD70" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE70" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF70" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG70" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH70" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="A70" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" ht="24" customHeight="1">
+      <c r="B71" s="11"/>
     </row>
     <row r="73" spans="1:34" ht="24" customHeight="1">
-      <c r="A73" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>93</v>
+      <c r="A73" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:34" ht="24" customHeight="1">
-      <c r="B74" s="7"/>
-    </row>
-    <row r="76" spans="1:34" ht="24" customHeight="1">
-      <c r="A76" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="77" spans="1:34" ht="24" customHeight="1">
-      <c r="A77" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>96</v>
+      <c r="A74" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34" ht="24" customHeight="1">
+      <c r="B75" s="11"/>
+      <c r="AA75" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB75" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC75" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD75" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE75" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF75" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG75" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH75" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:34" ht="24" customHeight="1">
-      <c r="B78" s="11"/>
-    </row>
-    <row r="80" spans="1:34" ht="24" customHeight="1">
-      <c r="A80" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A78" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34" ht="24" customHeight="1">
+      <c r="B79" s="13"/>
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
-      <c r="A81" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>96</v>
+      <c r="A81" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
-      <c r="B82" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="83" spans="1:30" ht="178" customHeight="1">
+      <c r="A82" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="B83" s="11"/>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
-      <c r="A85" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>100</v>
+      <c r="A85" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
-      <c r="A86" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>103</v>
+      <c r="A86" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="24" customHeight="1">
       <c r="B87" s="11"/>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
-      <c r="A89" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>105</v>
+      <c r="A89" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
-      <c r="A90" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>107</v>
+      <c r="A90" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
       <c r="B91" s="11"/>
       <c r="AA91" s="5" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="AB91" s="5" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="AC91" s="5" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="AD91" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
-      <c r="A93" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>112</v>
+      <c r="A93" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
-      <c r="A94" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>114</v>
+      <c r="A94" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
       <c r="B95" s="11"/>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>116</v>
+      <c r="A98" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="B99" s="7" t="s">
-        <v>117</v>
+      <c r="B99" s="13" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="A101" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>30</v>
+      <c r="A101" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="A102" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>120</v>
+      <c r="A102" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="B103" s="11"/>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="A105" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>122</v>
+      <c r="A105" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
-      <c r="A106" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>124</v>
+      <c r="A106" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="B107" s="12" t="s">
-        <v>33</v>
+      <c r="B107" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="178" customHeight="1">
       <c r="B108" s="11"/>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
-      <c r="A110" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>126</v>
+      <c r="A110" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>128</v>
+      <c r="A111" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="B112" s="12" t="s">
-        <v>28</v>
+      <c r="B112" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="B113" s="11"/>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>130</v>
+      <c r="A115" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="A116" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>132</v>
+      <c r="A116" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="B117" s="12" t="s">
-        <v>28</v>
+      <c r="B117" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
       <c r="B118" s="11"/>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>134</v>
+      <c r="A120" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="A121" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>136</v>
+      <c r="A121" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="B122" s="12" t="s">
-        <v>28</v>
+      <c r="B122" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="24" customHeight="1">
       <c r="B123" s="11"/>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="A125" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>138</v>
+      <c r="A125" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
-      <c r="A126" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>140</v>
+      <c r="A126" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
       <c r="B127" s="11"/>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="A129" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>142</v>
+      <c r="A129" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
-      <c r="A130" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>144</v>
+      <c r="A130" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="11"/>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
-      <c r="A134" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>146</v>
+      <c r="A134" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
-      <c r="B135" s="7" t="s">
-        <v>147</v>
+      <c r="B135" s="13" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="A137" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>30</v>
+      <c r="A137" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
-      <c r="A138" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>150</v>
+      <c r="A138" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="B139" s="11"/>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="A142" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>152</v>
+      <c r="A142" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
-      <c r="B143" s="7" t="s">
-        <v>153</v>
+      <c r="B143" s="13" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
-      <c r="A145" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>155</v>
+      <c r="A145" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="A146" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>157</v>
+      <c r="A146" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
-      <c r="B147" s="12" t="s">
-        <v>33</v>
+      <c r="B147" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="178" customHeight="1">
       <c r="B148" s="11"/>
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
-      <c r="A150" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>159</v>
+      <c r="A150" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
-      <c r="A151" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>161</v>
+      <c r="A151" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="24" customHeight="1">
-      <c r="B152" s="12" t="s">
-        <v>33</v>
+      <c r="B152" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="178" customHeight="1">
       <c r="B153" s="11"/>
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
-      <c r="A155" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>163</v>
+      <c r="A155" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
-      <c r="A156" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B156" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>165</v>
+      <c r="A156" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
-      <c r="B157" s="12" t="s">
-        <v>33</v>
+      <c r="B157" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="178" customHeight="1">
       <c r="B158" s="11"/>
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
-      <c r="A160" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>167</v>
+      <c r="A160" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
-      <c r="A161" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B161" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>169</v>
+      <c r="A161" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
-      <c r="B162" s="12" t="s">
-        <v>33</v>
+      <c r="B162" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="178" customHeight="1">
       <c r="B163" s="11"/>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
-      <c r="A165" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>171</v>
+      <c r="A165" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
-      <c r="A166" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B166" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>173</v>
+      <c r="A166" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
-      <c r="B167" s="12" t="s">
-        <v>33</v>
+      <c r="B167" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="178" customHeight="1">
       <c r="B168" s="11"/>
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
-      <c r="A170" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>175</v>
+      <c r="A170" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="24" customHeight="1">
-      <c r="A171" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>177</v>
+      <c r="A171" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
-      <c r="B172" s="12" t="s">
-        <v>33</v>
+      <c r="B172" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="178" customHeight="1">
       <c r="B173" s="11"/>
     </row>
     <row r="176" spans="1:3" ht="24" customHeight="1">
-      <c r="A176" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>179</v>
+      <c r="A176" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="24" customHeight="1">
-      <c r="B177" s="7" t="s">
-        <v>180</v>
+      <c r="B177" s="13" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="24" customHeight="1">
-      <c r="A179" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>155</v>
+      <c r="A179" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="24" customHeight="1">
-      <c r="A180" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B180" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C180" s="10" t="s">
-        <v>183</v>
+      <c r="A180" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="24" customHeight="1">
-      <c r="B181" s="12" t="s">
-        <v>33</v>
+      <c r="B181" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="178" customHeight="1">
       <c r="B182" s="11"/>
     </row>
     <row r="184" spans="1:3" ht="24" customHeight="1">
-      <c r="A184" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>159</v>
+      <c r="A184" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="24" customHeight="1">
-      <c r="A185" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B185" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C185" s="10" t="s">
-        <v>186</v>
+      <c r="A185" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="24" customHeight="1">
-      <c r="B186" s="12" t="s">
-        <v>33</v>
+      <c r="B186" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="178" customHeight="1">
       <c r="B187" s="11"/>
     </row>
     <row r="189" spans="1:3" ht="24" customHeight="1">
-      <c r="A189" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B189" s="8" t="s">
-        <v>163</v>
+      <c r="A189" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="24" customHeight="1">
-      <c r="A190" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B190" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C190" s="10" t="s">
-        <v>189</v>
+      <c r="A190" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="24" customHeight="1">
-      <c r="B191" s="12" t="s">
-        <v>33</v>
+      <c r="B191" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="178" customHeight="1">
       <c r="B192" s="11"/>
     </row>
     <row r="194" spans="1:3" ht="24" customHeight="1">
-      <c r="A194" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>167</v>
+      <c r="A194" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="24" customHeight="1">
-      <c r="A195" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B195" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C195" s="10" t="s">
-        <v>192</v>
+      <c r="A195" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="24" customHeight="1">
-      <c r="B196" s="12" t="s">
-        <v>33</v>
+      <c r="B196" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="178" customHeight="1">
       <c r="B197" s="11"/>
     </row>
     <row r="199" spans="1:3" ht="24" customHeight="1">
-      <c r="A199" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B199" s="8" t="s">
-        <v>171</v>
+      <c r="A199" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="24" customHeight="1">
-      <c r="A200" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B200" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C200" s="10" t="s">
-        <v>195</v>
+      <c r="A200" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C200" s="9" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="24" customHeight="1">
-      <c r="B201" s="12" t="s">
-        <v>33</v>
+      <c r="B201" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="178" customHeight="1">
       <c r="B202" s="11"/>
     </row>
     <row r="204" spans="1:3" ht="24" customHeight="1">
-      <c r="A204" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B204" s="8" t="s">
-        <v>197</v>
+      <c r="A204" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="24" customHeight="1">
-      <c r="A205" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B205" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C205" s="10" t="s">
-        <v>199</v>
+      <c r="A205" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="24" customHeight="1">
-      <c r="B206" s="12" t="s">
-        <v>33</v>
+      <c r="B206" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="178" customHeight="1">
       <c r="B207" s="11"/>
     </row>
     <row r="209" spans="1:3" ht="24" customHeight="1">
-      <c r="A209" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B209" s="8" t="s">
-        <v>201</v>
+      <c r="A209" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="24" customHeight="1">
-      <c r="A210" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B210" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C210" s="10" t="s">
-        <v>203</v>
+      <c r="A210" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="24" customHeight="1">
-      <c r="B211" s="12" t="s">
-        <v>33</v>
+      <c r="B211" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="178" customHeight="1">
       <c r="B212" s="11"/>
     </row>
     <row r="214" spans="1:3" ht="24" customHeight="1">
-      <c r="A214" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B214" s="8" t="s">
-        <v>205</v>
+      <c r="A214" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="24" customHeight="1">
-      <c r="A215" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B215" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C215" s="10" t="s">
-        <v>207</v>
+      <c r="A215" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="24" customHeight="1">
-      <c r="B216" s="12" t="s">
-        <v>33</v>
+      <c r="B216" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="178" customHeight="1">
       <c r="B217" s="11"/>
     </row>
     <row r="219" spans="1:3" ht="24" customHeight="1">
-      <c r="A219" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B219" s="8" t="s">
-        <v>209</v>
+      <c r="A219" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="24" customHeight="1">
-      <c r="A220" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B220" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C220" s="10" t="s">
-        <v>211</v>
+      <c r="A220" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C220" s="9" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="24" customHeight="1">
-      <c r="B221" s="12" t="s">
-        <v>33</v>
+      <c r="B221" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="178" customHeight="1">
       <c r="B222" s="11"/>
     </row>
     <row r="225" spans="1:3" ht="24" customHeight="1">
-      <c r="A225" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B225" s="6" t="s">
-        <v>213</v>
+      <c r="A225" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B225" s="12" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="24" customHeight="1">
-      <c r="B226" s="7" t="s">
-        <v>214</v>
+      <c r="B226" s="13" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="24" customHeight="1">
-      <c r="A228" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B228" s="8" t="s">
-        <v>171</v>
+      <c r="A228" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="24" customHeight="1">
-      <c r="A229" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B229" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C229" s="10" t="s">
-        <v>217</v>
+      <c r="A229" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="24" customHeight="1">
-      <c r="B230" s="12" t="s">
-        <v>33</v>
+      <c r="B230" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="178" customHeight="1">
       <c r="B231" s="11"/>
     </row>
     <row r="234" spans="1:3" ht="24" customHeight="1">
-      <c r="A234" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B234" s="6" t="s">
-        <v>219</v>
+      <c r="A234" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B234" s="12" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="24" customHeight="1">
-      <c r="B235" s="7" t="s">
-        <v>220</v>
+      <c r="B235" s="13" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="24" customHeight="1">
-      <c r="A237" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B237" s="8" t="s">
-        <v>38</v>
+      <c r="A237" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="24" customHeight="1">
-      <c r="A238" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B238" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C238" s="10" t="s">
-        <v>223</v>
+      <c r="A238" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="24" customHeight="1">
-      <c r="B239" s="12" t="s">
-        <v>33</v>
+      <c r="B239" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="178" customHeight="1">
@@ -3127,8 +3265,8 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
-      <formula1>AA70:AH70</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
+      <formula1>AA75:AH75</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B87">
       <formula1>"TRUE,FALSE"</formula1>
@@ -3144,7 +3282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD323"/>
   <sheetViews>
@@ -3159,2033 +3297,2033 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>225</v>
+      <c r="A1" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>226</v>
+      <c r="B2" s="13" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>20</v>
+      <c r="A4" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>229</v>
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>30</v>
+      <c r="A8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>232</v>
+      <c r="A9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>33</v>
+      <c r="B10" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>234</v>
+      <c r="A14" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="7" t="s">
-        <v>235</v>
+      <c r="B15" s="13" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>30</v>
+      <c r="A17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>238</v>
+      <c r="A18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
     <row r="22" spans="1:33" ht="24" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>240</v>
+      <c r="A22" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="24" customHeight="1">
-      <c r="B23" s="7" t="s">
-        <v>241</v>
+      <c r="B23" s="13" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:33" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>243</v>
+      <c r="A25" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>245</v>
+      <c r="A26" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:33" ht="24" customHeight="1">
-      <c r="B27" s="12" t="s">
-        <v>246</v>
+      <c r="B27" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:33" ht="24" customHeight="1">
       <c r="B28" s="11"/>
       <c r="AA28" s="5" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="AF28" s="5" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="24" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>254</v>
+      <c r="A30" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:33" ht="24" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>256</v>
+      <c r="A31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="24" customHeight="1">
-      <c r="B32" s="12" t="s">
-        <v>33</v>
+      <c r="B32" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:33" ht="178" customHeight="1">
       <c r="B33" s="11"/>
     </row>
     <row r="36" spans="1:33" ht="24" customHeight="1">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" ht="24" customHeight="1">
+      <c r="B37" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" ht="24" customHeight="1">
+      <c r="A39" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B36" s="6" t="s">
+    </row>
+    <row r="40" spans="1:33" ht="24" customHeight="1">
+      <c r="A40" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="37" spans="1:33" ht="24" customHeight="1">
-      <c r="B37" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="39" spans="1:33" ht="24" customHeight="1">
-      <c r="A39" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" ht="24" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>261</v>
+      <c r="C40" s="9" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:33" ht="24" customHeight="1">
-      <c r="B41" s="12" t="s">
-        <v>246</v>
+      <c r="B41" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:33" ht="24" customHeight="1">
       <c r="B42" s="11"/>
       <c r="AA42" s="5" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AB42" s="5" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="AC42" s="5" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="AD42" s="5" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="AE42" s="5" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="AF42" s="5" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="AG42" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:33" ht="24" customHeight="1">
-      <c r="A44" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>254</v>
+      <c r="A44" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:33" ht="24" customHeight="1">
-      <c r="A45" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>263</v>
+      <c r="A45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="46" spans="1:33" ht="24" customHeight="1">
-      <c r="B46" s="12" t="s">
-        <v>33</v>
+      <c r="B46" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:33" ht="178" customHeight="1">
       <c r="B47" s="11"/>
     </row>
     <row r="50" spans="1:33" ht="24" customHeight="1">
-      <c r="A50" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>265</v>
+      <c r="A50" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:33" ht="24" customHeight="1">
-      <c r="B51" s="7" t="s">
-        <v>266</v>
+      <c r="B51" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="53" spans="1:33" ht="24" customHeight="1">
-      <c r="A53" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>243</v>
+      <c r="A53" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:33" ht="24" customHeight="1">
-      <c r="A54" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>268</v>
+      <c r="A54" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:33" ht="24" customHeight="1">
-      <c r="B55" s="12" t="s">
-        <v>246</v>
+      <c r="B55" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:33" ht="24" customHeight="1">
       <c r="B56" s="11"/>
       <c r="AA56" s="5" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AB56" s="5" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="AC56" s="5" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="AD56" s="5" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="AE56" s="5" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="AF56" s="5" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="AG56" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:33" ht="24" customHeight="1">
-      <c r="A58" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>254</v>
+      <c r="A58" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="59" spans="1:33" ht="24" customHeight="1">
-      <c r="A59" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>270</v>
+      <c r="A59" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="60" spans="1:33" ht="24" customHeight="1">
-      <c r="B60" s="12" t="s">
-        <v>33</v>
+      <c r="B60" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:33" ht="178" customHeight="1">
       <c r="B61" s="11"/>
     </row>
     <row r="64" spans="1:33" ht="24" customHeight="1">
-      <c r="A64" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>272</v>
+      <c r="A64" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="65" spans="1:33" ht="24" customHeight="1">
-      <c r="B65" s="7" t="s">
-        <v>273</v>
+      <c r="B65" s="13" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="67" spans="1:33" ht="24" customHeight="1">
-      <c r="A67" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>243</v>
+      <c r="A67" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="1:33" ht="24" customHeight="1">
-      <c r="A68" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>275</v>
+      <c r="A68" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="69" spans="1:33" ht="24" customHeight="1">
-      <c r="B69" s="12" t="s">
-        <v>246</v>
+      <c r="B69" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:33" ht="24" customHeight="1">
       <c r="B70" s="11"/>
       <c r="AA70" s="5" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AB70" s="5" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="AC70" s="5" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="AD70" s="5" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="AE70" s="5" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="AF70" s="5" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="AG70" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:33" ht="24" customHeight="1">
-      <c r="A72" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>254</v>
+      <c r="A72" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="73" spans="1:33" ht="24" customHeight="1">
-      <c r="A73" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>277</v>
+      <c r="A73" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="74" spans="1:33" ht="24" customHeight="1">
-      <c r="B74" s="12" t="s">
-        <v>33</v>
+      <c r="B74" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:33" ht="178" customHeight="1">
       <c r="B75" s="11"/>
     </row>
     <row r="78" spans="1:33" ht="24" customHeight="1">
-      <c r="A78" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>279</v>
+      <c r="A78" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="79" spans="1:33" ht="24" customHeight="1">
-      <c r="B79" s="7" t="s">
-        <v>280</v>
+      <c r="B79" s="13" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="81" spans="1:33" ht="24" customHeight="1">
-      <c r="A81" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>243</v>
+      <c r="A81" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="82" spans="1:33" ht="24" customHeight="1">
-      <c r="A82" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>282</v>
+      <c r="A82" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="83" spans="1:33" ht="24" customHeight="1">
-      <c r="B83" s="12" t="s">
-        <v>246</v>
+      <c r="B83" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:33" ht="24" customHeight="1">
       <c r="B84" s="11"/>
       <c r="AA84" s="5" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AB84" s="5" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="AC84" s="5" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="AD84" s="5" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="AE84" s="5" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="AF84" s="5" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="AG84" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:33" ht="24" customHeight="1">
-      <c r="A86" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>254</v>
+      <c r="A86" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:33" ht="24" customHeight="1">
-      <c r="A87" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>284</v>
+      <c r="A87" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="88" spans="1:33" ht="24" customHeight="1">
-      <c r="B88" s="12" t="s">
-        <v>33</v>
+      <c r="B88" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:33" ht="178" customHeight="1">
       <c r="B89" s="11"/>
     </row>
     <row r="92" spans="1:33" ht="24" customHeight="1">
-      <c r="A92" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>286</v>
+      <c r="A92" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="93" spans="1:33" ht="24" customHeight="1">
-      <c r="B93" s="7" t="s">
-        <v>287</v>
+      <c r="B93" s="13" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="95" spans="1:33" ht="24" customHeight="1">
-      <c r="A95" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>243</v>
+      <c r="A95" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="96" spans="1:33" ht="24" customHeight="1">
-      <c r="A96" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>289</v>
+      <c r="A96" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
-      <c r="B97" s="12" t="s">
-        <v>246</v>
+      <c r="B97" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
       <c r="B98" s="11"/>
       <c r="AA98" s="5" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AB98" s="5" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="AC98" s="5" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="AD98" s="5" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="AE98" s="5" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="AF98" s="5" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="AG98" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:33" ht="24" customHeight="1">
-      <c r="A100" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>291</v>
+      <c r="A100" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="101" spans="1:33" ht="24" customHeight="1">
-      <c r="A101" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>293</v>
+      <c r="A101" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
       <c r="B102" s="11"/>
       <c r="AA102" s="5" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AB102" s="5" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="AC102" s="5" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="AD102" s="5" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="AE102" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:33" ht="24" customHeight="1">
-      <c r="A104" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>254</v>
+      <c r="A104" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
-      <c r="A105" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>298</v>
+      <c r="A105" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="106" spans="1:33" ht="24" customHeight="1">
-      <c r="B106" s="12" t="s">
-        <v>33</v>
+      <c r="B106" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="178" customHeight="1">
       <c r="B107" s="11"/>
     </row>
     <row r="110" spans="1:33" ht="24" customHeight="1">
-      <c r="A110" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>300</v>
+      <c r="A110" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="24" customHeight="1">
-      <c r="B111" s="7" t="s">
-        <v>301</v>
+      <c r="B111" s="13" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="113" spans="1:33" ht="24" customHeight="1">
-      <c r="A113" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>30</v>
+      <c r="A113" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:33" ht="24" customHeight="1">
-      <c r="A114" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>304</v>
+      <c r="A114" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="115" spans="1:33" ht="24" customHeight="1">
       <c r="B115" s="11"/>
     </row>
     <row r="118" spans="1:33" ht="24" customHeight="1">
-      <c r="A118" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>306</v>
+      <c r="A118" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="119" spans="1:33" ht="24" customHeight="1">
-      <c r="B119" s="7" t="s">
-        <v>307</v>
+      <c r="B119" s="13" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="121" spans="1:33" ht="24" customHeight="1">
-      <c r="A121" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>243</v>
+      <c r="A121" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="122" spans="1:33" ht="24" customHeight="1">
-      <c r="A122" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>309</v>
+      <c r="A122" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="123" spans="1:33" ht="24" customHeight="1">
-      <c r="B123" s="12" t="s">
-        <v>246</v>
+      <c r="B123" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="124" spans="1:33" ht="24" customHeight="1">
       <c r="B124" s="11"/>
       <c r="AA124" s="5" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AB124" s="5" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="AC124" s="5" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="AD124" s="5" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="AE124" s="5" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="AF124" s="5" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="AG124" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:33" ht="24" customHeight="1">
-      <c r="A126" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>254</v>
+      <c r="A126" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="127" spans="1:33" ht="24" customHeight="1">
-      <c r="A127" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B127" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>311</v>
+      <c r="A127" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="128" spans="1:33" ht="24" customHeight="1">
-      <c r="B128" s="12" t="s">
-        <v>33</v>
+      <c r="B128" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:33" ht="178" customHeight="1">
       <c r="B129" s="11"/>
     </row>
     <row r="132" spans="1:33" ht="24" customHeight="1">
-      <c r="A132" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>313</v>
+      <c r="A132" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="133" spans="1:33" ht="24" customHeight="1">
-      <c r="B133" s="7" t="s">
-        <v>314</v>
+      <c r="B133" s="13" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="135" spans="1:33" ht="24" customHeight="1">
-      <c r="A135" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>243</v>
+      <c r="A135" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="136" spans="1:33" ht="24" customHeight="1">
-      <c r="A136" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B136" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>316</v>
+      <c r="A136" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="137" spans="1:33" ht="24" customHeight="1">
-      <c r="B137" s="12" t="s">
-        <v>246</v>
+      <c r="B137" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="138" spans="1:33" ht="24" customHeight="1">
       <c r="B138" s="11"/>
       <c r="AA138" s="5" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AB138" s="5" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="AC138" s="5" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="AD138" s="5" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="AE138" s="5" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="AF138" s="5" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="AG138" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="140" spans="1:33" ht="24" customHeight="1">
-      <c r="A140" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>254</v>
+      <c r="A140" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="141" spans="1:33" ht="24" customHeight="1">
-      <c r="A141" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>318</v>
+      <c r="A141" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="142" spans="1:33" ht="24" customHeight="1">
-      <c r="B142" s="12" t="s">
-        <v>33</v>
+      <c r="B142" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:33" ht="178" customHeight="1">
       <c r="B143" s="11"/>
     </row>
     <row r="146" spans="1:33" ht="24" customHeight="1">
-      <c r="A146" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>320</v>
+      <c r="A146" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="147" spans="1:33" ht="24" customHeight="1">
-      <c r="B147" s="7" t="s">
-        <v>321</v>
+      <c r="B147" s="13" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="149" spans="1:33" ht="24" customHeight="1">
-      <c r="A149" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>243</v>
+      <c r="A149" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="150" spans="1:33" ht="24" customHeight="1">
-      <c r="A150" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>323</v>
+      <c r="A150" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="151" spans="1:33" ht="24" customHeight="1">
-      <c r="B151" s="12" t="s">
-        <v>246</v>
+      <c r="B151" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="152" spans="1:33" ht="24" customHeight="1">
       <c r="B152" s="11"/>
       <c r="AA152" s="5" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AB152" s="5" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="AC152" s="5" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="AD152" s="5" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="AE152" s="5" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="AF152" s="5" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="AG152" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="154" spans="1:33" ht="24" customHeight="1">
-      <c r="A154" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>254</v>
+      <c r="A154" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="155" spans="1:33" ht="24" customHeight="1">
-      <c r="A155" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>325</v>
+      <c r="A155" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="156" spans="1:33" ht="24" customHeight="1">
-      <c r="B156" s="12" t="s">
-        <v>33</v>
+      <c r="B156" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="157" spans="1:33" ht="178" customHeight="1">
       <c r="B157" s="11"/>
     </row>
     <row r="160" spans="1:33" ht="24" customHeight="1">
-      <c r="A160" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>327</v>
+      <c r="A160" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="161" spans="1:33" ht="24" customHeight="1">
-      <c r="B161" s="7" t="s">
-        <v>328</v>
+      <c r="B161" s="13" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="163" spans="1:33" ht="24" customHeight="1">
-      <c r="A163" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>243</v>
+      <c r="A163" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="164" spans="1:33" ht="24" customHeight="1">
-      <c r="A164" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B164" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>330</v>
+      <c r="A164" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="165" spans="1:33" ht="24" customHeight="1">
-      <c r="B165" s="12" t="s">
-        <v>246</v>
+      <c r="B165" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="166" spans="1:33" ht="24" customHeight="1">
       <c r="B166" s="11"/>
       <c r="AA166" s="5" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AB166" s="5" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="AC166" s="5" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="AD166" s="5" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="AE166" s="5" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="AF166" s="5" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="AG166" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="168" spans="1:33" ht="24" customHeight="1">
-      <c r="A168" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>254</v>
+      <c r="A168" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="169" spans="1:33" ht="24" customHeight="1">
-      <c r="A169" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B169" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>332</v>
+      <c r="A169" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="170" spans="1:33" ht="24" customHeight="1">
-      <c r="B170" s="12" t="s">
-        <v>33</v>
+      <c r="B170" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="171" spans="1:33" ht="178" customHeight="1">
       <c r="B171" s="11"/>
     </row>
     <row r="174" spans="1:33" ht="24" customHeight="1">
-      <c r="A174" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>334</v>
+      <c r="A174" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="175" spans="1:33" ht="24" customHeight="1">
-      <c r="B175" s="7" t="s">
-        <v>335</v>
+      <c r="B175" s="13" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="177" spans="1:33" ht="24" customHeight="1">
-      <c r="A177" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="B177" s="8" t="s">
-        <v>243</v>
+      <c r="A177" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="178" spans="1:33" ht="24" customHeight="1">
-      <c r="A178" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B178" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>337</v>
+      <c r="A178" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="179" spans="1:33" ht="24" customHeight="1">
-      <c r="B179" s="12" t="s">
-        <v>246</v>
+      <c r="B179" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="180" spans="1:33" ht="24" customHeight="1">
       <c r="B180" s="11"/>
       <c r="AA180" s="5" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AB180" s="5" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="AC180" s="5" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="AD180" s="5" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="AE180" s="5" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="AF180" s="5" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="AG180" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="182" spans="1:33" ht="24" customHeight="1">
-      <c r="A182" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>339</v>
+      <c r="A182" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="183" spans="1:33" ht="24" customHeight="1">
-      <c r="A183" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B183" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="C183" s="10" t="s">
-        <v>341</v>
+      <c r="A183" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="184" spans="1:33" ht="24" customHeight="1">
       <c r="B184" s="11"/>
     </row>
     <row r="186" spans="1:33" ht="24" customHeight="1">
-      <c r="A186" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B186" s="8" t="s">
-        <v>254</v>
+      <c r="A186" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="187" spans="1:33" ht="24" customHeight="1">
-      <c r="A187" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B187" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>343</v>
+      <c r="A187" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="188" spans="1:33" ht="24" customHeight="1">
-      <c r="B188" s="12" t="s">
-        <v>33</v>
+      <c r="B188" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="189" spans="1:33" ht="178" customHeight="1">
       <c r="B189" s="11"/>
     </row>
     <row r="192" spans="1:33" ht="24" customHeight="1">
-      <c r="A192" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>345</v>
+      <c r="A192" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="B192" s="12" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="193" spans="1:33" ht="24" customHeight="1">
-      <c r="B193" s="7" t="s">
-        <v>346</v>
+      <c r="B193" s="13" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="195" spans="1:33" ht="24" customHeight="1">
-      <c r="A195" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="B195" s="8" t="s">
-        <v>243</v>
+      <c r="A195" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="196" spans="1:33" ht="24" customHeight="1">
-      <c r="A196" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B196" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C196" s="10" t="s">
-        <v>348</v>
+      <c r="A196" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="197" spans="1:33" ht="24" customHeight="1">
-      <c r="B197" s="12" t="s">
-        <v>246</v>
+      <c r="B197" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="198" spans="1:33" ht="24" customHeight="1">
       <c r="B198" s="11"/>
       <c r="AA198" s="5" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AB198" s="5" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="AC198" s="5" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="AD198" s="5" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="AE198" s="5" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="AF198" s="5" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="AG198" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="200" spans="1:33" ht="24" customHeight="1">
-      <c r="A200" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="B200" s="8" t="s">
-        <v>339</v>
+      <c r="A200" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="201" spans="1:33" ht="24" customHeight="1">
-      <c r="A201" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B201" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>350</v>
+      <c r="A201" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="202" spans="1:33" ht="24" customHeight="1">
       <c r="B202" s="11"/>
     </row>
     <row r="204" spans="1:33" ht="24" customHeight="1">
-      <c r="A204" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="B204" s="8" t="s">
-        <v>352</v>
+      <c r="A204" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="205" spans="1:33" ht="24" customHeight="1">
-      <c r="A205" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B205" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="C205" s="10" t="s">
-        <v>354</v>
+      <c r="A205" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="206" spans="1:33" ht="24" customHeight="1">
       <c r="B206" s="11"/>
     </row>
     <row r="208" spans="1:33" ht="24" customHeight="1">
-      <c r="A208" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="B208" s="8" t="s">
-        <v>254</v>
+      <c r="A208" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="209" spans="1:33" ht="24" customHeight="1">
-      <c r="A209" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B209" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C209" s="10" t="s">
-        <v>356</v>
+      <c r="A209" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="210" spans="1:33" ht="24" customHeight="1">
-      <c r="B210" s="12" t="s">
-        <v>33</v>
+      <c r="B210" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="211" spans="1:33" ht="178" customHeight="1">
       <c r="B211" s="11"/>
     </row>
     <row r="214" spans="1:33" ht="24" customHeight="1">
-      <c r="A214" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="B214" s="6" t="s">
-        <v>358</v>
+      <c r="A214" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="B214" s="12" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="215" spans="1:33" ht="24" customHeight="1">
-      <c r="B215" s="7" t="s">
-        <v>359</v>
+      <c r="B215" s="13" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="217" spans="1:33" ht="24" customHeight="1">
-      <c r="A217" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="B217" s="8" t="s">
-        <v>243</v>
+      <c r="A217" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="218" spans="1:33" ht="24" customHeight="1">
-      <c r="A218" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B218" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C218" s="10" t="s">
-        <v>361</v>
+      <c r="A218" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C218" s="9" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="219" spans="1:33" ht="24" customHeight="1">
-      <c r="B219" s="12" t="s">
-        <v>246</v>
+      <c r="B219" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="220" spans="1:33" ht="24" customHeight="1">
       <c r="B220" s="11"/>
       <c r="AA220" s="5" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AB220" s="5" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="AC220" s="5" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="AD220" s="5" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="AE220" s="5" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="AF220" s="5" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="AG220" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="222" spans="1:33" ht="24" customHeight="1">
-      <c r="A222" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B222" s="8" t="s">
-        <v>254</v>
+      <c r="A222" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="223" spans="1:33" ht="24" customHeight="1">
-      <c r="A223" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B223" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C223" s="10" t="s">
-        <v>363</v>
+      <c r="A223" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C223" s="9" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="224" spans="1:33" ht="24" customHeight="1">
-      <c r="B224" s="12" t="s">
-        <v>33</v>
+      <c r="B224" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="225" spans="1:33" ht="178" customHeight="1">
       <c r="B225" s="11"/>
     </row>
     <row r="228" spans="1:33" ht="24" customHeight="1">
-      <c r="A228" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="B228" s="6" t="s">
-        <v>365</v>
+      <c r="A228" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="B228" s="12" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="229" spans="1:33" ht="24" customHeight="1">
-      <c r="B229" s="7" t="s">
-        <v>366</v>
+      <c r="B229" s="13" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="231" spans="1:33" ht="24" customHeight="1">
-      <c r="A231" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="B231" s="8" t="s">
-        <v>243</v>
+      <c r="A231" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="232" spans="1:33" ht="24" customHeight="1">
-      <c r="A232" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B232" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C232" s="10" t="s">
-        <v>368</v>
+      <c r="A232" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="233" spans="1:33" ht="24" customHeight="1">
-      <c r="B233" s="12" t="s">
-        <v>246</v>
+      <c r="B233" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="234" spans="1:33" ht="24" customHeight="1">
       <c r="B234" s="11"/>
       <c r="AA234" s="5" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AB234" s="5" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="AC234" s="5" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="AD234" s="5" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="AE234" s="5" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="AF234" s="5" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="AG234" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="236" spans="1:33" ht="24" customHeight="1">
-      <c r="A236" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="B236" s="8" t="s">
-        <v>370</v>
+      <c r="A236" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="237" spans="1:33" ht="24" customHeight="1">
-      <c r="A237" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B237" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="C237" s="10" t="s">
-        <v>372</v>
+      <c r="A237" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="238" spans="1:33" ht="24" customHeight="1">
       <c r="B238" s="11"/>
       <c r="AA238" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="AB238" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="AC238" s="5" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="AD238" s="5" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="AE238" s="5" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="AF238" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="240" spans="1:33" ht="24" customHeight="1">
-      <c r="A240" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="B240" s="8" t="s">
-        <v>379</v>
+      <c r="A240" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="241" spans="1:33" ht="24" customHeight="1">
-      <c r="A241" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B241" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="C241" s="10" t="s">
-        <v>381</v>
+      <c r="A241" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C241" s="9" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="242" spans="1:33" ht="24" customHeight="1">
       <c r="B242" s="11"/>
       <c r="AA242" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="AB242" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="AC242" s="5" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="AD242" s="5" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="AE242" s="5" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="AF242" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="244" spans="1:33" ht="24" customHeight="1">
-      <c r="A244" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="B244" s="8" t="s">
-        <v>254</v>
+      <c r="A244" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="245" spans="1:33" ht="24" customHeight="1">
-      <c r="A245" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B245" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C245" s="10" t="s">
-        <v>383</v>
+      <c r="A245" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="246" spans="1:33" ht="24" customHeight="1">
-      <c r="B246" s="12" t="s">
-        <v>33</v>
+      <c r="B246" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="247" spans="1:33" ht="178" customHeight="1">
       <c r="B247" s="11"/>
     </row>
     <row r="250" spans="1:33" ht="24" customHeight="1">
-      <c r="A250" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="B250" s="6" t="s">
-        <v>385</v>
+      <c r="A250" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="B250" s="12" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="251" spans="1:33" ht="24" customHeight="1">
-      <c r="B251" s="7" t="s">
-        <v>386</v>
+      <c r="B251" s="13" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="253" spans="1:33" ht="24" customHeight="1">
-      <c r="A253" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="B253" s="8" t="s">
-        <v>243</v>
+      <c r="A253" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="254" spans="1:33" ht="24" customHeight="1">
-      <c r="A254" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B254" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C254" s="10" t="s">
-        <v>388</v>
+      <c r="A254" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B254" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C254" s="9" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="255" spans="1:33" ht="24" customHeight="1">
-      <c r="B255" s="12" t="s">
-        <v>246</v>
+      <c r="B255" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="256" spans="1:33" ht="24" customHeight="1">
       <c r="B256" s="11"/>
       <c r="AA256" s="5" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AB256" s="5" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="AC256" s="5" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="AD256" s="5" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="AE256" s="5" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="AF256" s="5" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="AG256" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="258" spans="1:32" ht="24" customHeight="1">
-      <c r="A258" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="B258" s="8" t="s">
-        <v>370</v>
+      <c r="A258" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="259" spans="1:32" ht="24" customHeight="1">
-      <c r="A259" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B259" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="C259" s="10" t="s">
-        <v>390</v>
+      <c r="A259" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B259" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C259" s="9" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="260" spans="1:32" ht="24" customHeight="1">
       <c r="B260" s="11"/>
       <c r="AA260" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="AB260" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="AC260" s="5" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="AD260" s="5" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="AE260" s="5" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="AF260" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="262" spans="1:32" ht="24" customHeight="1">
-      <c r="A262" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="B262" s="8" t="s">
-        <v>379</v>
+      <c r="A262" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="263" spans="1:32" ht="24" customHeight="1">
-      <c r="A263" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B263" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="C263" s="10" t="s">
-        <v>392</v>
+      <c r="A263" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="264" spans="1:32" ht="24" customHeight="1">
       <c r="B264" s="11"/>
       <c r="AA264" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="AB264" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="AC264" s="5" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="AD264" s="5" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="AE264" s="5" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="AF264" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="266" spans="1:32" ht="24" customHeight="1">
-      <c r="A266" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="B266" s="8" t="s">
-        <v>254</v>
+      <c r="A266" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="267" spans="1:32" ht="24" customHeight="1">
-      <c r="A267" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B267" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C267" s="10" t="s">
-        <v>394</v>
+      <c r="A267" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="268" spans="1:32" ht="24" customHeight="1">
-      <c r="B268" s="12" t="s">
-        <v>33</v>
+      <c r="B268" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="269" spans="1:32" ht="178" customHeight="1">
       <c r="B269" s="11"/>
     </row>
     <row r="272" spans="1:32" ht="24" customHeight="1">
-      <c r="A272" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B272" s="6" t="s">
-        <v>396</v>
+      <c r="A272" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="B272" s="12" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="273" spans="1:33" ht="24" customHeight="1">
-      <c r="B273" s="7" t="s">
-        <v>397</v>
+      <c r="B273" s="13" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="275" spans="1:33" ht="24" customHeight="1">
-      <c r="A275" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="B275" s="8" t="s">
-        <v>243</v>
+      <c r="A275" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B275" s="7" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="276" spans="1:33" ht="24" customHeight="1">
-      <c r="A276" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B276" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C276" s="10" t="s">
-        <v>399</v>
+      <c r="A276" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B276" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C276" s="9" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="277" spans="1:33" ht="24" customHeight="1">
-      <c r="B277" s="12" t="s">
-        <v>246</v>
+      <c r="B277" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="278" spans="1:33" ht="24" customHeight="1">
       <c r="B278" s="11"/>
       <c r="AA278" s="5" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AB278" s="5" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="AC278" s="5" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="AD278" s="5" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="AE278" s="5" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="AF278" s="5" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="AG278" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="280" spans="1:33" ht="24" customHeight="1">
-      <c r="A280" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="B280" s="8" t="s">
-        <v>254</v>
+      <c r="A280" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B280" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="281" spans="1:33" ht="24" customHeight="1">
-      <c r="A281" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B281" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C281" s="10" t="s">
-        <v>401</v>
+      <c r="A281" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B281" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C281" s="9" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="282" spans="1:33" ht="24" customHeight="1">
-      <c r="B282" s="12" t="s">
-        <v>33</v>
+      <c r="B282" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="283" spans="1:33" ht="178" customHeight="1">
       <c r="B283" s="11"/>
     </row>
     <row r="286" spans="1:33" ht="24" customHeight="1">
-      <c r="A286" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="B286" s="6" t="s">
-        <v>403</v>
+      <c r="A286" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="B286" s="12" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="287" spans="1:33" ht="24" customHeight="1">
-      <c r="B287" s="7" t="s">
-        <v>404</v>
+      <c r="B287" s="13" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="289" spans="1:33" ht="24" customHeight="1">
-      <c r="A289" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="B289" s="8" t="s">
-        <v>30</v>
+      <c r="A289" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B289" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="290" spans="1:33" ht="24" customHeight="1">
-      <c r="A290" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B290" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="C290" s="10" t="s">
-        <v>407</v>
+      <c r="A290" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B290" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C290" s="9" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="291" spans="1:33" ht="24" customHeight="1">
       <c r="B291" s="11"/>
     </row>
     <row r="294" spans="1:33" ht="24" customHeight="1">
-      <c r="A294" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="B294" s="6" t="s">
-        <v>409</v>
+      <c r="A294" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B294" s="12" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="295" spans="1:33" ht="24" customHeight="1">
-      <c r="B295" s="7" t="s">
-        <v>410</v>
+      <c r="B295" s="13" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="297" spans="1:33" ht="24" customHeight="1">
-      <c r="A297" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="B297" s="8" t="s">
-        <v>243</v>
+      <c r="A297" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B297" s="7" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="298" spans="1:33" ht="24" customHeight="1">
-      <c r="A298" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B298" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C298" s="10" t="s">
-        <v>412</v>
+      <c r="A298" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B298" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C298" s="9" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="299" spans="1:33" ht="24" customHeight="1">
-      <c r="B299" s="12" t="s">
-        <v>246</v>
+      <c r="B299" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="300" spans="1:33" ht="24" customHeight="1">
       <c r="B300" s="11"/>
       <c r="AA300" s="5" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AB300" s="5" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="AC300" s="5" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="AD300" s="5" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="AE300" s="5" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="AF300" s="5" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="AG300" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="302" spans="1:33" ht="24" customHeight="1">
-      <c r="A302" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="B302" s="8" t="s">
-        <v>414</v>
+      <c r="A302" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="B302" s="7" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="303" spans="1:33" ht="24" customHeight="1">
-      <c r="A303" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B303" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="C303" s="10" t="s">
-        <v>416</v>
+      <c r="A303" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B303" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C303" s="9" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="304" spans="1:33" ht="24" customHeight="1">
       <c r="B304" s="11"/>
     </row>
     <row r="306" spans="1:32" ht="24" customHeight="1">
-      <c r="A306" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B306" s="8" t="s">
-        <v>254</v>
+      <c r="A306" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B306" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="307" spans="1:32" ht="24" customHeight="1">
-      <c r="A307" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B307" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C307" s="10" t="s">
-        <v>418</v>
+      <c r="A307" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B307" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C307" s="9" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="308" spans="1:32" ht="24" customHeight="1">
-      <c r="B308" s="12" t="s">
-        <v>33</v>
+      <c r="B308" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="309" spans="1:32" ht="178" customHeight="1">
       <c r="B309" s="11"/>
     </row>
     <row r="312" spans="1:32" ht="24" customHeight="1">
-      <c r="A312" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="B312" s="6" t="s">
-        <v>420</v>
+      <c r="A312" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B312" s="12" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="313" spans="1:32" ht="24" customHeight="1">
-      <c r="B313" s="7" t="s">
-        <v>421</v>
+      <c r="B313" s="13" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="315" spans="1:32" ht="24" customHeight="1">
-      <c r="A315" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="B315" s="8" t="s">
-        <v>243</v>
+      <c r="A315" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B315" s="7" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="316" spans="1:32" ht="24" customHeight="1">
-      <c r="A316" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B316" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="C316" s="10" t="s">
-        <v>424</v>
+      <c r="A316" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B316" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C316" s="9" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="317" spans="1:32" ht="24" customHeight="1">
-      <c r="B317" s="12" t="s">
-        <v>246</v>
+      <c r="B317" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="318" spans="1:32" ht="24" customHeight="1">
       <c r="B318" s="11"/>
       <c r="AA318" s="5" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AB318" s="5" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="AC318" s="5" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="AD318" s="5" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="AE318" s="5" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="AF318" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="320" spans="1:32" ht="24" customHeight="1">
-      <c r="A320" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="B320" s="8" t="s">
-        <v>254</v>
+      <c r="A320" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="B320" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="24" customHeight="1">
-      <c r="A321" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B321" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C321" s="10" t="s">
-        <v>430</v>
+      <c r="A321" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B321" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C321" s="9" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="24" customHeight="1">
-      <c r="B322" s="12" t="s">
-        <v>33</v>
+      <c r="B322" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="178" customHeight="1">

--- a/cmip6/models/giss-e2-1-ma-g/cmip6_nasa-giss_giss-e2-1-ma-g_toplevel.xlsx
+++ b/cmip6/models/giss-e2-1-ma-g/cmip6_nasa-giss_giss-e2-1-ma-g_toplevel.xlsx
@@ -40,7 +40,7 @@
     <t>GISS-E2-1-MA-G</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Top Level</t>

--- a/cmip6/models/giss-e2-1-ma-g/cmip6_nasa-giss_giss-e2-1-ma-g_toplevel.xlsx
+++ b/cmip6/models/giss-e2-1-ma-g/cmip6_nasa-giss_giss-e2-1-ma-g_toplevel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="420">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -331,25 +331,25 @@
     <t>cmip6.toplevel.key_properties.software_properties.coupler</t>
   </si>
   <si>
-    <t>OASIS</t>
-  </si>
-  <si>
-    <t>OASIS3-MCT</t>
-  </si>
-  <si>
-    <t>ESMF</t>
-  </si>
-  <si>
-    <t>NUOPC</t>
-  </si>
-  <si>
-    <t>Bespoke</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>None</t>
+    <t>OASIS: The OASIS coupler - prior to OASIS-MCT</t>
+  </si>
+  <si>
+    <t>OASIS3-MCT: The MCT variant of the OASIS coupler</t>
+  </si>
+  <si>
+    <t>ESMF: Vanilla Earth System Modelling Framework</t>
+  </si>
+  <si>
+    <t>NUOPC: National Unified Operational Prediction Capability variant of ESMF</t>
+  </si>
+  <si>
+    <t>Bespoke: Customised coupler developed for this model</t>
+  </si>
+  <si>
+    <t>Unknown: It is not known what/if-a coupler is used</t>
+  </si>
+  <si>
+    <t>None: No coupler is used</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -757,22 +757,22 @@
     <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CO2.provision</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>N/A: Not applicable - forcing agent is not included</t>
+  </si>
+  <si>
+    <t>M: Emissions and concentrations determined by the model state rather than externally prescribed</t>
+  </si>
+  <si>
+    <t>Y: Prescribed concentrations, distributions or time series data</t>
+  </si>
+  <si>
+    <t>E: Concentrations calculated interactively driven by prescribed emissions or precursor emissions</t>
+  </si>
+  <si>
+    <t>ES: Surface emissions (and 3-D concentrations away from the surface) derived via the model from the prescribed surface concentration</t>
+  </si>
+  <si>
+    <t>C: Fixed prescribed climatology of concentrations with no year-to-year variability</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.2.2 </t>
@@ -898,13 +898,16 @@
     <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CFC.equivalence_concentration</t>
   </si>
   <si>
-    <t>Option 1</t>
-  </si>
-  <si>
-    <t>Option 2</t>
-  </si>
-  <si>
-    <t>Option 3</t>
+    <t>N/A: Not applicabale (CFCs not included or emissions and concentrations determined by the model state)</t>
+  </si>
+  <si>
+    <t>Option 1: CFCs, including CFC-12, are provided as actual concentrations</t>
+  </si>
+  <si>
+    <t>Option 2: CFC-12 is provided as actual concentrations and any other gases are provided as an equivalence concentration of CFC-11</t>
+  </si>
+  <si>
+    <t>Option 3: Ozone depleting gases, including CFC-12, are provided as an equivalence concentration of CFC-12 and all other fluorinated gases are provided as an equivalence concentration of HFC-134a</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.7.3 </t>
@@ -1117,19 +1120,19 @@
     <t>cmip6.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.historical_explosive_volcanic_aerosol_implementation</t>
   </si>
   <si>
-    <t>Type A</t>
-  </si>
-  <si>
-    <t>Type B</t>
-  </si>
-  <si>
-    <t>Type C</t>
-  </si>
-  <si>
-    <t>Type D</t>
-  </si>
-  <si>
-    <t>Type E</t>
+    <t>Type A: Explosive volcanic aerosol returns rapidly to zero (or near-zero) background.</t>
+  </si>
+  <si>
+    <t>Type B: Explosive volcanic aerosol returns rapidly to constant (average volcano)</t>
+  </si>
+  <si>
+    <t>Type C: Explosive volcanic aerosol returns slowly (over several decades) to constant (average volcano) background.</t>
+  </si>
+  <si>
+    <t>Type D: Explosive volcanic aerosol set to zero</t>
+  </si>
+  <si>
+    <t>Type E: Explosive volcanic aerosol set to constant (average volcano) background</t>
   </si>
   <si>
     <t>2.1.15.3 *</t>
@@ -1255,16 +1258,19 @@
     <t>cmip6.toplevel.radiative_forcings.other.solar.provision</t>
   </si>
   <si>
-    <t>Irradiance</t>
-  </si>
-  <si>
-    <t>Proton</t>
-  </si>
-  <si>
-    <t>Electron</t>
-  </si>
-  <si>
-    <t>Cosmic ray</t>
+    <t>N/A: Not applicable - solar forcing is not included</t>
+  </si>
+  <si>
+    <t>irradiance: Solar irradiance forcing</t>
+  </si>
+  <si>
+    <t>proton: Proton pathway to solar forcing</t>
+  </si>
+  <si>
+    <t>electron: Electron pathway to solar forcing</t>
+  </si>
+  <si>
+    <t>cosmic ray: Cosmic ray pathway to solar forcing</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.19.2 </t>
@@ -3778,16 +3784,16 @@
     <row r="94" spans="1:33" ht="24" customHeight="1">
       <c r="B94" s="11"/>
       <c r="AA94" s="6" t="s">
-        <v>246</v>
+        <v>293</v>
       </c>
       <c r="AB94" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AC94" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AD94" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AE94" s="6" t="s">
         <v>111</v>
@@ -3795,7 +3801,7 @@
     </row>
     <row r="96" spans="1:33" ht="24" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>253</v>
@@ -3809,7 +3815,7 @@
         <v>254</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
@@ -3822,20 +3828,20 @@
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="B103" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>243</v>
@@ -3849,7 +3855,7 @@
         <v>244</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
@@ -3883,7 +3889,7 @@
     </row>
     <row r="110" spans="1:33" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>253</v>
@@ -3897,7 +3903,7 @@
         <v>254</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="112" spans="1:33" ht="24" customHeight="1">
@@ -3910,20 +3916,20 @@
     </row>
     <row r="116" spans="1:33" ht="24" customHeight="1">
       <c r="A116" s="12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="117" spans="1:33" ht="24" customHeight="1">
       <c r="B117" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="119" spans="1:33" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>243</v>
@@ -3937,7 +3943,7 @@
         <v>244</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="121" spans="1:33" ht="24" customHeight="1">
@@ -3971,7 +3977,7 @@
     </row>
     <row r="124" spans="1:33" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>253</v>
@@ -3985,7 +3991,7 @@
         <v>254</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="126" spans="1:33" ht="24" customHeight="1">
@@ -3998,20 +4004,20 @@
     </row>
     <row r="130" spans="1:33" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="131" spans="1:33" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="133" spans="1:33" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>243</v>
@@ -4025,7 +4031,7 @@
         <v>244</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="135" spans="1:33" ht="24" customHeight="1">
@@ -4059,7 +4065,7 @@
     </row>
     <row r="138" spans="1:33" ht="24" customHeight="1">
       <c r="A138" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B138" s="9" t="s">
         <v>253</v>
@@ -4073,7 +4079,7 @@
         <v>254</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="140" spans="1:33" ht="24" customHeight="1">
@@ -4086,20 +4092,20 @@
     </row>
     <row r="144" spans="1:33" ht="24" customHeight="1">
       <c r="A144" s="12" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="145" spans="1:33" ht="24" customHeight="1">
       <c r="B145" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="147" spans="1:33" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>243</v>
@@ -4113,7 +4119,7 @@
         <v>244</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="149" spans="1:33" ht="24" customHeight="1">
@@ -4147,7 +4153,7 @@
     </row>
     <row r="152" spans="1:33" ht="24" customHeight="1">
       <c r="A152" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B152" s="9" t="s">
         <v>253</v>
@@ -4161,7 +4167,7 @@
         <v>254</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="154" spans="1:33" ht="24" customHeight="1">
@@ -4174,20 +4180,20 @@
     </row>
     <row r="158" spans="1:33" ht="24" customHeight="1">
       <c r="A158" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="159" spans="1:33" ht="24" customHeight="1">
       <c r="B159" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="161" spans="1:33" ht="24" customHeight="1">
       <c r="A161" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B161" s="9" t="s">
         <v>243</v>
@@ -4201,7 +4207,7 @@
         <v>244</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="163" spans="1:33" ht="24" customHeight="1">
@@ -4235,10 +4241,10 @@
     </row>
     <row r="166" spans="1:33" ht="24" customHeight="1">
       <c r="A166" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="167" spans="1:33" ht="24" customHeight="1">
@@ -4246,10 +4252,10 @@
         <v>116</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="168" spans="1:33" ht="24" customHeight="1">
@@ -4257,7 +4263,7 @@
     </row>
     <row r="170" spans="1:33" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B170" s="9" t="s">
         <v>253</v>
@@ -4271,7 +4277,7 @@
         <v>254</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="172" spans="1:33" ht="24" customHeight="1">
@@ -4284,20 +4290,20 @@
     </row>
     <row r="176" spans="1:33" ht="24" customHeight="1">
       <c r="A176" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="177" spans="1:33" ht="24" customHeight="1">
       <c r="B177" s="13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="179" spans="1:33" ht="24" customHeight="1">
       <c r="A179" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B179" s="9" t="s">
         <v>243</v>
@@ -4311,7 +4317,7 @@
         <v>244</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="181" spans="1:33" ht="24" customHeight="1">
@@ -4345,10 +4351,10 @@
     </row>
     <row r="184" spans="1:33" ht="24" customHeight="1">
       <c r="A184" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="185" spans="1:33" ht="24" customHeight="1">
@@ -4356,10 +4362,10 @@
         <v>116</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="186" spans="1:33" ht="24" customHeight="1">
@@ -4367,10 +4373,10 @@
     </row>
     <row r="188" spans="1:33" ht="24" customHeight="1">
       <c r="A188" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="189" spans="1:33" ht="24" customHeight="1">
@@ -4378,10 +4384,10 @@
         <v>116</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="190" spans="1:33" ht="24" customHeight="1">
@@ -4389,7 +4395,7 @@
     </row>
     <row r="192" spans="1:33" ht="24" customHeight="1">
       <c r="A192" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B192" s="9" t="s">
         <v>253</v>
@@ -4403,7 +4409,7 @@
         <v>254</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="194" spans="1:33" ht="24" customHeight="1">
@@ -4416,20 +4422,20 @@
     </row>
     <row r="198" spans="1:33" ht="24" customHeight="1">
       <c r="A198" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="199" spans="1:33" ht="24" customHeight="1">
       <c r="B199" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="201" spans="1:33" ht="24" customHeight="1">
       <c r="A201" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B201" s="9" t="s">
         <v>243</v>
@@ -4443,7 +4449,7 @@
         <v>244</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="203" spans="1:33" ht="24" customHeight="1">
@@ -4477,7 +4483,7 @@
     </row>
     <row r="206" spans="1:33" ht="24" customHeight="1">
       <c r="A206" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B206" s="9" t="s">
         <v>253</v>
@@ -4491,7 +4497,7 @@
         <v>254</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="208" spans="1:33" ht="24" customHeight="1">
@@ -4504,20 +4510,20 @@
     </row>
     <row r="212" spans="1:33" ht="24" customHeight="1">
       <c r="A212" s="12" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="213" spans="1:33" ht="24" customHeight="1">
       <c r="B213" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="215" spans="1:33" ht="24" customHeight="1">
       <c r="A215" s="9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B215" s="9" t="s">
         <v>243</v>
@@ -4531,7 +4537,7 @@
         <v>244</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="217" spans="1:33" ht="24" customHeight="1">
@@ -4565,10 +4571,10 @@
     </row>
     <row r="220" spans="1:33" ht="24" customHeight="1">
       <c r="A220" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="221" spans="1:33" ht="24" customHeight="1">
@@ -4576,28 +4582,28 @@
         <v>101</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="222" spans="1:33" ht="24" customHeight="1">
       <c r="B222" s="11"/>
       <c r="AA222" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AB222" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AC222" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AD222" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AE222" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF222" s="6" t="s">
         <v>111</v>
@@ -4605,10 +4611,10 @@
     </row>
     <row r="224" spans="1:33" ht="24" customHeight="1">
       <c r="A224" s="9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="225" spans="1:33" ht="24" customHeight="1">
@@ -4616,28 +4622,28 @@
         <v>101</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="226" spans="1:33" ht="24" customHeight="1">
       <c r="B226" s="11"/>
       <c r="AA226" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AB226" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AC226" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AD226" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AE226" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF226" s="6" t="s">
         <v>111</v>
@@ -4645,7 +4651,7 @@
     </row>
     <row r="228" spans="1:33" ht="24" customHeight="1">
       <c r="A228" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B228" s="9" t="s">
         <v>253</v>
@@ -4659,7 +4665,7 @@
         <v>254</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="230" spans="1:33" ht="24" customHeight="1">
@@ -4672,20 +4678,20 @@
     </row>
     <row r="234" spans="1:33" ht="24" customHeight="1">
       <c r="A234" s="12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="235" spans="1:33" ht="24" customHeight="1">
       <c r="B235" s="13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="237" spans="1:33" ht="24" customHeight="1">
       <c r="A237" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B237" s="9" t="s">
         <v>243</v>
@@ -4699,7 +4705,7 @@
         <v>244</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="239" spans="1:33" ht="24" customHeight="1">
@@ -4733,10 +4739,10 @@
     </row>
     <row r="242" spans="1:32" ht="24" customHeight="1">
       <c r="A242" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="243" spans="1:32" ht="24" customHeight="1">
@@ -4744,28 +4750,28 @@
         <v>101</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="244" spans="1:32" ht="24" customHeight="1">
       <c r="B244" s="11"/>
       <c r="AA244" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AB244" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AC244" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AD244" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AE244" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF244" s="6" t="s">
         <v>111</v>
@@ -4773,10 +4779,10 @@
     </row>
     <row r="246" spans="1:32" ht="24" customHeight="1">
       <c r="A246" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="247" spans="1:32" ht="24" customHeight="1">
@@ -4784,28 +4790,28 @@
         <v>101</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="248" spans="1:32" ht="24" customHeight="1">
       <c r="B248" s="11"/>
       <c r="AA248" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AB248" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AC248" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AD248" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AE248" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF248" s="6" t="s">
         <v>111</v>
@@ -4813,7 +4819,7 @@
     </row>
     <row r="250" spans="1:32" ht="24" customHeight="1">
       <c r="A250" s="9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B250" s="9" t="s">
         <v>253</v>
@@ -4827,7 +4833,7 @@
         <v>254</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="252" spans="1:32" ht="24" customHeight="1">
@@ -4840,20 +4846,20 @@
     </row>
     <row r="256" spans="1:32" ht="24" customHeight="1">
       <c r="A256" s="12" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B256" s="12" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="257" spans="1:33" ht="24" customHeight="1">
       <c r="B257" s="13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="259" spans="1:33" ht="24" customHeight="1">
       <c r="A259" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B259" s="9" t="s">
         <v>243</v>
@@ -4867,7 +4873,7 @@
         <v>244</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="261" spans="1:33" ht="24" customHeight="1">
@@ -4901,7 +4907,7 @@
     </row>
     <row r="264" spans="1:33" ht="24" customHeight="1">
       <c r="A264" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B264" s="9" t="s">
         <v>253</v>
@@ -4915,7 +4921,7 @@
         <v>254</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="266" spans="1:33" ht="24" customHeight="1">
@@ -4928,20 +4934,20 @@
     </row>
     <row r="270" spans="1:33" ht="24" customHeight="1">
       <c r="A270" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="271" spans="1:33" ht="24" customHeight="1">
       <c r="B271" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="273" spans="1:33" ht="24" customHeight="1">
       <c r="A273" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B273" s="9" t="s">
         <v>243</v>
@@ -4955,7 +4961,7 @@
         <v>244</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="275" spans="1:33" ht="24" customHeight="1">
@@ -4989,10 +4995,10 @@
     </row>
     <row r="278" spans="1:33" ht="24" customHeight="1">
       <c r="A278" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="279" spans="1:33" ht="24" customHeight="1">
@@ -5000,10 +5006,10 @@
         <v>116</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="280" spans="1:33" ht="24" customHeight="1">
@@ -5011,7 +5017,7 @@
     </row>
     <row r="282" spans="1:33" ht="24" customHeight="1">
       <c r="A282" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B282" s="9" t="s">
         <v>253</v>
@@ -5025,7 +5031,7 @@
         <v>254</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="284" spans="1:33" ht="24" customHeight="1">
@@ -5038,20 +5044,20 @@
     </row>
     <row r="288" spans="1:33" ht="24" customHeight="1">
       <c r="A288" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B288" s="12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="289" spans="1:32" ht="24" customHeight="1">
       <c r="B289" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="291" spans="1:32" ht="24" customHeight="1">
       <c r="A291" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B291" s="9" t="s">
         <v>243</v>
@@ -5062,10 +5068,10 @@
         <v>101</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="293" spans="1:32" ht="24" customHeight="1">
@@ -5076,19 +5082,19 @@
     <row r="294" spans="1:32" ht="24" customHeight="1">
       <c r="B294" s="11"/>
       <c r="AA294" s="6" t="s">
-        <v>246</v>
+        <v>413</v>
       </c>
       <c r="AB294" s="6" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AC294" s="6" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AD294" s="6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AE294" s="6" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AF294" s="6" t="s">
         <v>111</v>
@@ -5096,7 +5102,7 @@
     </row>
     <row r="296" spans="1:32" ht="24" customHeight="1">
       <c r="A296" s="9" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B296" s="9" t="s">
         <v>253</v>
@@ -5110,7 +5116,7 @@
         <v>254</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="298" spans="1:32" ht="24" customHeight="1">
